--- a/RouteApp/data/routes.xlsx
+++ b/RouteApp/data/routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.moura\Downloads\RouteApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD09741-042B-4C33-8DB4-2C86C7248D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC70C7-D6A2-4E8D-A711-D68D403C3BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{93990F1E-4CF9-424F-A353-03F643A9BD5D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Itinerários" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Itinerários!$B$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Itinerários!$A$1:$H$382</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3504,9 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A6EFFD-B347-4DC6-98F8-D025CBF807FB}">
   <dimension ref="A1:H383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C367" workbookViewId="0">
-      <selection activeCell="E377" sqref="E377"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13196,7 +13194,7 @@
       <c r="C383" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1" xr:uid="{A4A6EFFD-B347-4DC6-98F8-D025CBF807FB}"/>
+  <autoFilter ref="A1:H382" xr:uid="{A4A6EFFD-B347-4DC6-98F8-D025CBF807FB}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>